--- a/biology/Médecine/Hôpital_Léopold-Bellan/Hôpital_Léopold-Bellan.xlsx
+++ b/biology/Médecine/Hôpital_Léopold-Bellan/Hôpital_Léopold-Bellan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_L%C3%A9opold-Bellan</t>
+          <t>Hôpital_Léopold-Bellan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’hôpital Léopold-Bellan est un établissement de soins privé à but non lucratif réparti sur deux sites et géré par la Fondation Léopold-Bellan.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_L%C3%A9opold-Bellan</t>
+          <t>Hôpital_Léopold-Bellan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,15 +527,51 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'hôpital tient son nom de l'industriel et homme politique français Léopold Bellan.
 Conçu en 1920, il est habilité à participer au service public hospitalier depuis 1973. Jusqu'en 2009 l'hôpital possédait un service d'accueil des urgences ainsi que des services de chirurgie, notamment en proctologie.
 Jusqu'à début 2015, l'hôpital était réparti sur deux sites :
 Montparnasse, 19-21, rue Vercingétorix, 75014 Paris
-Aqueduc, 10, rue de l'Aqueduc, 75010 Paris
-Montparnasse
-Le site de Montparnasse offrait 108 lits en hospitalisation complète répartis sur 7 services au sein de trois pôles :
+Aqueduc, 10, rue de l'Aqueduc, 75010 Paris</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hôpital_Léopold-Bellan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_L%C3%A9opold-Bellan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Montparnasse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site de Montparnasse offrait 108 lits en hospitalisation complète répartis sur 7 services au sein de trois pôles :
 Pôle médecine :
 médecine interne (adulte)
 neurologie
@@ -539,8 +587,43 @@
 laboratoire de biologie médicale
 imagerie médicale : radiologie, échographie, scanner
 En février 2015, le site de Montparnasse a déménagé dans l'enceinte de l’hôpital Saint-Joseph, situé rue Raymond-Losserand, toujours dans le 14e arrondissement de Paris.
-Aqueduc
-Sur le site de l’Aqueduc, l’hôpital Léopold-Bellan offre 100 places d’hôpital de jour réparties sur 2 unités :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hôpital_Léopold-Bellan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_L%C3%A9opold-Bellan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aqueduc</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sur le site de l’Aqueduc, l’hôpital Léopold-Bellan offre 100 places d’hôpital de jour réparties sur 2 unités :
 L’Unité de médecine physique et réadaptation
 L’Unité de réadaptation cardio-vasculaire</t>
         </is>
